--- a/MarsFramework/ExcelData/TestDataManageListings.xlsx
+++ b/MarsFramework/ExcelData/TestDataManageListings.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rammy\Desktop\marsframework\MarsFramework\ExcelData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Neelam\Desktop\Mars project\MarsFramework-master\MarsFramework\ExcelData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A31C20A-6FC1-4509-AD8E-30D3C2ABF50C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6916FC-87E0-4764-9D65-8CC95709D384}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33930" yWindow="585" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="510" windowWidth="20730" windowHeight="10530" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SignUp" sheetId="3" r:id="rId1"/>
@@ -54,22 +54,22 @@
     <t>Deleteaction</t>
   </si>
   <si>
-    <t>Rameez</t>
-  </si>
-  <si>
-    <t>Ismail</t>
-  </si>
-  <si>
-    <t>ramm@hotmail.co.nz</t>
-  </si>
-  <si>
-    <t>Rammy1234</t>
-  </si>
-  <si>
     <t>http://www.skillswap.pro/</t>
   </si>
   <si>
     <t>Animation</t>
+  </si>
+  <si>
+    <t>neelam.panda@yahoo.com.au</t>
+  </si>
+  <si>
+    <t>Hello@123</t>
+  </si>
+  <si>
+    <t>Neelam</t>
+  </si>
+  <si>
+    <t>Panda</t>
   </si>
 </sst>
 </file>
@@ -475,7 +475,7 @@
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,24 +506,26 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{249EE2EE-EF6B-4479-9C60-DA1191CE14A1}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{179C8577-2DB4-48D5-B58A-A1DE4C25579D}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{59A2218C-FE90-4916-8057-323820B5D934}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -534,7 +536,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,7 +559,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>12</v>
@@ -570,7 +572,7 @@
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="C2" r:id="rId3" display="Test@123" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId4"/>
@@ -623,7 +625,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
